--- a/teaching/traditional_assets/database/data/australia/australia_semiconductor.xlsx
+++ b/teaching/traditional_assets/database/data/australia/australia_semiconductor.xlsx
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.8525</v>
+        <v>1.8315</v>
       </c>
       <c r="G2">
-        <v>-1.138263665594855</v>
+        <v>-0.5327470492941448</v>
       </c>
       <c r="H2">
-        <v>-1.625172255397336</v>
+        <v>-1.006711409395973</v>
       </c>
       <c r="I2">
-        <v>-1.535842505922127</v>
+        <v>-1.02985420041657</v>
       </c>
       <c r="J2">
-        <v>-1.535842505922127</v>
+        <v>-1.02985420041657</v>
       </c>
       <c r="K2">
-        <v>-17.2</v>
+        <v>-17.5</v>
       </c>
       <c r="L2">
-        <v>-1.580156178226918</v>
+        <v>-1.349996142868163</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,73 +633,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>4.218</v>
+        <v>4.25</v>
       </c>
       <c r="V2">
-        <v>0.04040229885057471</v>
+        <v>0.0154320987654321</v>
       </c>
       <c r="W2">
-        <v>-1.145258103241297</v>
+        <v>-1.174894217207334</v>
       </c>
       <c r="X2">
-        <v>0.09895123708610078</v>
+        <v>0.07704211110163209</v>
       </c>
       <c r="Y2">
-        <v>-1.244209340327397</v>
+        <v>-1.251936328308966</v>
       </c>
       <c r="Z2">
-        <v>0.3065055049924801</v>
+        <v>0.4917305212047645</v>
       </c>
       <c r="AA2">
-        <v>-4.548108574242653</v>
+        <v>-1.379435191889934</v>
       </c>
       <c r="AB2">
-        <v>0.09869874532580611</v>
+        <v>0.07689136991668613</v>
       </c>
       <c r="AC2">
-        <v>-4.642947040265175</v>
+        <v>-1.465267093811619</v>
       </c>
       <c r="AD2">
-        <v>2.47</v>
+        <v>7.359</v>
       </c>
       <c r="AE2">
-        <v>1.673228384811737</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>4.143228384811737</v>
+        <v>7.359</v>
       </c>
       <c r="AG2">
-        <v>-0.07477161518826314</v>
+        <v>3.109</v>
       </c>
       <c r="AH2">
-        <v>0.03817122861062323</v>
+        <v>0.02602569679479699</v>
       </c>
       <c r="AI2">
-        <v>0.108423929616439</v>
+        <v>0.2525481313703284</v>
       </c>
       <c r="AJ2">
-        <v>-0.0007167165252920627</v>
+        <v>0.01116301448068106</v>
       </c>
       <c r="AK2">
-        <v>-0.002199473830323474</v>
+        <v>0.1249146209168709</v>
       </c>
       <c r="AL2">
-        <v>0.113</v>
+        <v>0.872</v>
       </c>
       <c r="AM2">
-        <v>-0.409</v>
+        <v>0.583</v>
       </c>
       <c r="AN2">
-        <v>-0.153102336825141</v>
+        <v>-0.5639080459770115</v>
       </c>
       <c r="AO2">
-        <v>-158.7610619469027</v>
+        <v>-15.30963302752293</v>
       </c>
       <c r="AP2">
-        <v>0.004634700005470969</v>
+        <v>-0.2382375478927203</v>
       </c>
       <c r="AQ2">
-        <v>43.86308068459658</v>
+        <v>-22.89879931389365</v>
       </c>
     </row>
     <row r="3">
@@ -719,25 +719,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.33</v>
+        <v>-0.148</v>
       </c>
       <c r="G3">
-        <v>-4.419642857142857</v>
+        <v>-2.078947368421053</v>
       </c>
       <c r="H3">
-        <v>-6.741071428571429</v>
+        <v>-5.008771929824562</v>
       </c>
       <c r="I3">
-        <v>-6.583731637868282</v>
+        <v>-5.052631578947369</v>
       </c>
       <c r="J3">
-        <v>-6.583731637868282</v>
+        <v>-5.052631578947369</v>
       </c>
       <c r="K3">
-        <v>-3.61</v>
+        <v>-5.39</v>
       </c>
       <c r="L3">
-        <v>-5.372023809523809</v>
+        <v>-4.728070175438597</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,70 +761,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1.86</v>
+        <v>1.12</v>
       </c>
       <c r="V3">
-        <v>0.0403470715835141</v>
+        <v>0.009443507588532884</v>
       </c>
       <c r="W3">
-        <v>-0.103735632183908</v>
+        <v>-0.2130434782608696</v>
       </c>
       <c r="X3">
-        <v>0.09895123708610078</v>
+        <v>0.07690773952214357</v>
       </c>
       <c r="Y3">
-        <v>-0.2026868692700088</v>
+        <v>-0.2899512177830131</v>
       </c>
       <c r="Z3">
-        <v>0.02006189434547988</v>
+        <v>0.04863481228668941</v>
       </c>
       <c r="AA3">
-        <v>-0.1320821285179067</v>
+        <v>-0.2457337883959044</v>
       </c>
       <c r="AB3">
-        <v>0.09869874532580611</v>
+        <v>0.07689136991668613</v>
       </c>
       <c r="AC3">
-        <v>-0.2307808738437128</v>
+        <v>-0.3226251583125905</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>0.033</v>
       </c>
       <c r="AE3">
-        <v>0.1763383032374282</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.1763383032374282</v>
+        <v>0.033</v>
       </c>
       <c r="AG3">
-        <v>-1.683661696762572</v>
+        <v>-1.087</v>
       </c>
       <c r="AH3">
-        <v>0.003810550050047755</v>
+        <v>0.0002781688063186466</v>
       </c>
       <c r="AI3">
-        <v>0.006921650244180493</v>
+        <v>0.001733830715073819</v>
       </c>
       <c r="AJ3">
-        <v>-0.03790635971087812</v>
+        <v>-0.009250040421059799</v>
       </c>
       <c r="AK3">
-        <v>-0.0712922416313696</v>
+        <v>-0.06068218612181098</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>0.007</v>
       </c>
       <c r="AM3">
-        <v>-0.522</v>
+        <v>-0.282</v>
       </c>
       <c r="AN3">
-        <v>-0</v>
+        <v>-0.005779334500875657</v>
+      </c>
+      <c r="AO3">
+        <v>-822.8571428571428</v>
       </c>
       <c r="AP3">
-        <v>0.3871376630863582</v>
+        <v>0.1903677758318739</v>
       </c>
       <c r="AQ3">
-        <v>8.754789272030651</v>
+        <v>20.42553191489362</v>
       </c>
     </row>
     <row r="4">
@@ -844,22 +847,22 @@
         </is>
       </c>
       <c r="G4">
-        <v>-0.7686274509803922</v>
+        <v>-0.2920338983050847</v>
       </c>
       <c r="H4">
-        <v>-0.9</v>
+        <v>-0.3084745762711864</v>
       </c>
       <c r="I4">
-        <v>-0.8082890631838218</v>
+        <v>-0.3228813559322034</v>
       </c>
       <c r="J4">
-        <v>-0.8082890631838218</v>
+        <v>-0.3228813559322034</v>
       </c>
       <c r="K4">
-        <v>-9.539999999999999</v>
+        <v>-8.33</v>
       </c>
       <c r="L4">
-        <v>-0.9352941176470588</v>
+        <v>-0.7059322033898304</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -883,73 +886,73 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.838</v>
+        <v>1.4</v>
       </c>
       <c r="V4">
-        <v>0.06598425196850394</v>
+        <v>0.04697986577181208</v>
       </c>
       <c r="W4">
-        <v>-1.145258103241297</v>
+        <v>-1.174894217207334</v>
       </c>
       <c r="X4">
-        <v>0.1160232440679623</v>
+        <v>0.0878979725699162</v>
       </c>
       <c r="Y4">
-        <v>-1.261281347309259</v>
+        <v>-1.26279218977725</v>
       </c>
       <c r="Z4">
-        <v>5.626834237157453</v>
+        <v>4.272266473569875</v>
       </c>
       <c r="AA4">
-        <v>-4.548108574242653</v>
+        <v>-1.379435191889934</v>
       </c>
       <c r="AB4">
-        <v>0.09483846602252195</v>
+        <v>0.08583190192168536</v>
       </c>
       <c r="AC4">
-        <v>-4.642947040265175</v>
+        <v>-1.465267093811619</v>
       </c>
       <c r="AD4">
-        <v>2.47</v>
+        <v>6.93</v>
       </c>
       <c r="AE4">
-        <v>1.472742222374903</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>3.942742222374903</v>
+        <v>6.93</v>
       </c>
       <c r="AG4">
-        <v>3.104742222374903</v>
+        <v>5.529999999999999</v>
       </c>
       <c r="AH4">
-        <v>0.2369046019996744</v>
+        <v>0.1886741083582902</v>
       </c>
       <c r="AI4">
-        <v>0.357367383639114</v>
+        <v>0.8067520372526193</v>
       </c>
       <c r="AJ4">
-        <v>0.1964437115576295</v>
+        <v>0.1565242003962638</v>
       </c>
       <c r="AK4">
-        <v>0.3045434749258076</v>
+        <v>0.7691237830319888</v>
       </c>
       <c r="AL4">
-        <v>0.113</v>
+        <v>0.855</v>
       </c>
       <c r="AM4">
-        <v>0.113</v>
+        <v>0.855</v>
       </c>
       <c r="AN4">
-        <v>-0.3154533844189017</v>
+        <v>-1.903846153846154</v>
       </c>
       <c r="AO4">
-        <v>-82.30088495575221</v>
+        <v>-4.456140350877194</v>
       </c>
       <c r="AP4">
-        <v>-0.3965188023467309</v>
+        <v>-1.519230769230769</v>
       </c>
       <c r="AQ4">
-        <v>-82.30088495575221</v>
+        <v>-4.456140350877194</v>
       </c>
     </row>
     <row r="5">
@@ -969,25 +972,25 @@
         </is>
       </c>
       <c r="D5">
-        <v>2.035</v>
+        <v>3.811</v>
       </c>
       <c r="G5">
-        <v>-121.5384615384615</v>
+        <v>-47.3913043478261</v>
       </c>
       <c r="H5">
-        <v>-306.1538461538462</v>
+        <v>-160.8695652173913</v>
       </c>
       <c r="I5">
-        <v>-311.4484286030678</v>
+        <v>-164.3478260869565</v>
       </c>
       <c r="J5">
-        <v>-311.4484286030678</v>
+        <v>-164.3478260869565</v>
       </c>
       <c r="K5">
-        <v>-4.05</v>
+        <v>-3.78</v>
       </c>
       <c r="L5">
-        <v>-311.5384615384615</v>
+        <v>-164.3478260869565</v>
       </c>
       <c r="M5">
         <v>-0</v>
@@ -1011,67 +1014,73 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>1.52</v>
+        <v>1.73</v>
       </c>
       <c r="V5">
-        <v>0.03333333333333333</v>
+        <v>0.01362204724409449</v>
       </c>
       <c r="W5">
-        <v>-1.723404255319149</v>
+        <v>-2.25</v>
       </c>
       <c r="X5">
-        <v>0.09876775047436374</v>
+        <v>0.07704211110163209</v>
       </c>
       <c r="Y5">
-        <v>-1.822172005793513</v>
+        <v>-2.327042111101632</v>
       </c>
       <c r="Z5">
-        <v>0.06367933541395589</v>
+        <v>0.1437500000000001</v>
       </c>
       <c r="AA5">
-        <v>-19.83282894916425</v>
+        <v>-23.62500000000001</v>
       </c>
       <c r="AB5">
-        <v>0.09874389181129697</v>
+        <v>0.0768587700548469</v>
       </c>
       <c r="AC5">
-        <v>-19.93157284097554</v>
+        <v>-23.70185877005486</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>0.396</v>
       </c>
       <c r="AE5">
-        <v>0.02414785919940559</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.02414785919940559</v>
+        <v>0.396</v>
       </c>
       <c r="AG5">
-        <v>-1.495852140800594</v>
+        <v>-1.334</v>
       </c>
       <c r="AH5">
-        <v>0.0005292780321931327</v>
+        <v>0.003108417846714183</v>
       </c>
       <c r="AI5">
-        <v>0.01417004931177161</v>
+        <v>0.2612137203166227</v>
       </c>
       <c r="AJ5">
-        <v>-0.03391635964889375</v>
+        <v>-0.01061544093072112</v>
       </c>
       <c r="AK5">
-        <v>-8.123103615235642</v>
+        <v>6.233644859813086</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AN5">
-        <v>-0</v>
+        <v>-0.107027027027027</v>
+      </c>
+      <c r="AO5">
+        <v>-378</v>
       </c>
       <c r="AP5">
-        <v>0.3783136420841159</v>
+        <v>0.3605405405405405</v>
+      </c>
+      <c r="AQ5">
+        <v>-378</v>
       </c>
     </row>
   </sheetData>
